--- a/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
@@ -20,60 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">codes for  only Gc</t>
   </si>
   <si>
-    <t xml:space="preserve">DLOSJSFZIWFDZFIY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYZDFYGCKVAIYRDI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QVLQJPWDJDOGFTDQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMSKKSADAORGSWPG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPQTJPFSJDTIIDJM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DVATYJICOWCKLGQM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QYYYLIFCWAKMCFYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFAMDJMYOTIWWOTK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DQPQLGKJOMHYITPK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMMAGIRIDRYTOYKK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZDDKCKMGYVZHHOA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSWSDLZYMFLFGQTP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLAYWMKFPGAOGOFK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VKGPCRRWIVGIFTDD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFOMTCZCPATWPFIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPYPDIRYHGSJPIFF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOLGGCTWFFAVJYAT </t>
+    <t xml:space="preserve">PHRYDKLLATODKYAF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSMIKYCQTLJVOVIH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JSHCMMZOCQWMMMLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQOGLRMMHAYFPYDJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSFKYSCOHGGIDFAA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGADIMJAGLPFMMGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMZGDYQYAZQKZKM </t>
   </si>
 </sst>
 </file>
@@ -83,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -108,14 +78,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF1C1C1C"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -163,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,18 +135,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,66 +147,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF1C1C1C"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -265,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,7 +188,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -318,54 +208,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
@@ -20,30 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">codes for  only Gc</t>
   </si>
   <si>
     <t xml:space="preserve">PHRYDKLLATODKYAF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSMIKYCQTLJVOVIH </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JSHCMMZOCQWMMMLQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQOGLRMMHAYFPYDJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSFKYSCOHGGIDFAA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGADIMJAGLPFMMGA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOMZGDYQYAZQKZKM </t>
   </si>
 </sst>
 </file>
@@ -155,7 +137,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -177,39 +159,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
